--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Integration Type</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Database Prod</t>
   </si>
   <si>
-    <t>Application Example Name</t>
-  </si>
-  <si>
     <t>Flat File</t>
   </si>
   <si>
@@ -73,13 +70,43 @@
   </si>
   <si>
     <t>Standalone</t>
+  </si>
+  <si>
+    <t>Nutrade</t>
+  </si>
+  <si>
+    <t>Marcela Simioni</t>
+  </si>
+  <si>
+    <t>Feed System</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>https://198.154.238.157/nutrace</t>
+  </si>
+  <si>
+    <t>http://198.154.238.157/nutrace/cpanel</t>
+  </si>
+  <si>
+    <t>Dynasys</t>
+  </si>
+  <si>
+    <t>Plussoft SaaS</t>
+  </si>
+  <si>
+    <t>http://187.61.21.13:8080/csicrm</t>
+  </si>
+  <si>
+    <t>N/D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +118,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,10 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,11 +208,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="3" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -239,13 +309,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -255,6 +325,446 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Drop Down 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Drop Down 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Drop Down 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Drop Down 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -556,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,11 +1077,11 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
@@ -604,34 +1114,66 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -686,6 +1228,182 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId6" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId7" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId8" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId9" name="Drop Down 9">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId10" name="Drop Down 10">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId11" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId12" name="Drop Down 12">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId13" name="Drop Down 13">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Integration Type</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>N/D</t>
+  </si>
+  <si>
+    <t>PI/PO</t>
   </si>
 </sst>
 </file>
@@ -208,43 +211,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$4" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1177,9 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Integration Type</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>PI/PO</t>
+  </si>
+  <si>
+    <t>Flat File / RFC</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="6" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1183,11 @@
       </c>
       <c r="K6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1418,17 +1426,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T966104\Documents\repos\docs\syngenta-appmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.daher\Desktop\Syngenta\compart\syngenta-appmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Integration Type</t>
   </si>
@@ -214,43 +214,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$L$2:$L$18" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="$K$2:$K$18" noThreeD="1" sel="6" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="6" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
     <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1137,57 +1137,28 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Integration Type</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>Flat File / RFC</t>
+  </si>
+  <si>
+    <t>https://www.kewilltransport.net</t>
+  </si>
+  <si>
+    <t>https://cte.kewilltransport.net</t>
+  </si>
+  <si>
+    <t>Ezequias Prado</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>Web Service / FTP</t>
+  </si>
+  <si>
+    <t>Carrier Web Services</t>
   </si>
 </sst>
 </file>
@@ -136,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +173,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,11 +214,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -196,6 +241,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,6 +269,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="2" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="10" val="5"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="4"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="1" val="0"/>
 </file>
@@ -238,7 +294,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="7" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -246,11 +302,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$C1:$C$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="6" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="10" dropStyle="combo" dx="16" fmlaRange="'Integration Type'!$A1:$A$18" noThreeD="1" sel="6" val="5"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,6 +861,106 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1047750" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Drop Down 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1066800" cy="171450"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Drop Down 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1072,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1240,7 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
@@ -1155,10 +1311,27 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1389,6 +1562,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId14" name="Drop Down 15">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId15" name="Drop Down 16">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -1397,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1654,9 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1446,6 +1666,26 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.daher\Desktop\Syngenta\compart\syngenta-appmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T966104\Documents\repos\docs\syngenta-appmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Integration Type</t>
   </si>
@@ -129,14 +129,77 @@
     <t>Web Service / FTP</t>
   </si>
   <si>
-    <t>Carrier Web Services</t>
+    <t>SPoT</t>
+  </si>
+  <si>
+    <t>Crédito Rural</t>
+  </si>
+  <si>
+    <t>GKO</t>
+  </si>
+  <si>
+    <t>PECSyn (CMT)</t>
+  </si>
+  <si>
+    <t>PECSyn (SIP)</t>
+  </si>
+  <si>
+    <t>PECSyn (VPM)</t>
+  </si>
+  <si>
+    <t>Roterizador (AILOG)</t>
+  </si>
+  <si>
+    <t>Teamspace (Price Approval Workflow)</t>
+  </si>
+  <si>
+    <t>Painel e-Kanban Eletronico</t>
+  </si>
+  <si>
+    <t>WebMap</t>
+  </si>
+  <si>
+    <t>Integração Nutrace</t>
+  </si>
+  <si>
+    <t>Easy-IRPJ</t>
+  </si>
+  <si>
+    <t>Mastersaf DW</t>
+  </si>
+  <si>
+    <t>SynSeg</t>
+  </si>
+  <si>
+    <t>Rhadar</t>
+  </si>
+  <si>
+    <t>Pro transportadora</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>\\IEAZIWAPPD004\CredRural (10.63.252.78) remote desktop</t>
+  </si>
+  <si>
+    <t>IEAZIWSQLP002(10.63.252.30)</t>
+  </si>
+  <si>
+    <t>brspwprojdb01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaine Santos </t>
+  </si>
+  <si>
+    <t>marcela Simioni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +215,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,14 +276,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,29 +607,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -536,9 +654,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
@@ -563,8 +684,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -574,8 +695,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -588,8 +709,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -611,8 +732,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -622,16 +743,261 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,13 +1009,13 @@
           <x14:formula1>
             <xm:f>'Integration Type'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Integration Type'!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -659,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,6 +1073,9 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -731,6 +1100,11 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T966104\Documents\repos\docs\syngenta-appmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duzi\Documents\syngenta-appmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
   <si>
     <t>Integration Type</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Application Type</t>
   </si>
   <si>
-    <t>ASM</t>
-  </si>
-  <si>
     <t>Application Name</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Nutrade</t>
   </si>
   <si>
-    <t>Marcela Simioni</t>
-  </si>
-  <si>
     <t>Feed System</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>https://cte.kewilltransport.net</t>
   </si>
   <si>
-    <t>Ezequias Prado</t>
-  </si>
-  <si>
     <t>Web Service</t>
   </si>
   <si>
@@ -189,17 +180,35 @@
     <t>brspwprojdb01</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaine Santos </t>
-  </si>
-  <si>
-    <t>marcela Simioni</t>
+    <t>BRPIMES01</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>http://187.61.21.14/csicrm</t>
+  </si>
+  <si>
+    <t>ieaziwappp003</t>
+  </si>
+  <si>
+    <t>ieaziwappd002</t>
+  </si>
+  <si>
+    <t>IEAZIWSQLD001 (10.63.252.71)</t>
+  </si>
+  <si>
+    <t>BRSPIIS01</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +220,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,38 +260,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -291,43 +283,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,401 +643,627 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="45" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="N/D"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1009,13 +1271,13 @@
           <x14:formula1>
             <xm:f>'Integration Type'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B23</xm:sqref>
+          <xm:sqref>B2:B22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Integration Type'!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C23</xm:sqref>
+          <xm:sqref>C2:C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1039,72 +1301,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
   <si>
     <t>Integration Type</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Application Type</t>
   </si>
   <si>
-    <t>ASM</t>
-  </si>
-  <si>
     <t>Application Name</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Nutrade</t>
   </si>
   <si>
-    <t>Marcela Simioni</t>
-  </si>
-  <si>
     <t>Feed System</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>https://cte.kewilltransport.net</t>
   </si>
   <si>
-    <t>Ezequias Prado</t>
-  </si>
-  <si>
     <t>Web Service</t>
   </si>
   <si>
@@ -189,10 +180,7 @@
     <t>brspwprojdb01</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaine Santos </t>
-  </si>
-  <si>
-    <t>marcela Simioni</t>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -216,7 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,25 +282,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -326,8 +304,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,401 +595,571 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1009,13 +1167,13 @@
           <x14:formula1>
             <xm:f>'Integration Type'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B23</xm:sqref>
+          <xm:sqref>B2:B22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Integration Type'!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C23</xm:sqref>
+          <xm:sqref>C2:C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1039,72 +1197,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
   <si>
     <t>Integration Type</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>\\friapfil03\webfoldersprod_h$\syngenta1.pro.intra\PricingS</t>
+  </si>
+  <si>
+    <t>FRIAPSQLGL02\INSGLOB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \\friawiis01\DevWebs$\syngenta1.dev.intra\pricingspot</t>
+  </si>
+  <si>
+    <t>FRIAWSQLGS04\INSGDEV02</t>
+  </si>
+  <si>
+    <t>BRSPIIS01</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>ieaziwappp003</t>
   </si>
 </sst>
 </file>
@@ -598,8 +619,8 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -773,14 +794,17 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>51</v>
@@ -964,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>51</v>
@@ -987,10 +1011,10 @@
         <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>51</v>
@@ -1010,10 +1034,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>51</v>
@@ -1157,9 +1181,10 @@
     <hyperlink ref="H20" r:id="rId19"/>
     <hyperlink ref="H21" r:id="rId20"/>
     <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="F7" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -619,8 +619,8 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>Integration Type</t>
   </si>
@@ -180,9 +180,6 @@
     <t>brspwprojdb01</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>\\friapfil03\webfoldersprod_h$\syngenta1.pro.intra\PricingS</t>
   </si>
   <si>
@@ -202,13 +199,22 @@
   </si>
   <si>
     <t>ieaziwappp003</t>
+  </si>
+  <si>
+    <t>view sql vpagamento</t>
+  </si>
+  <si>
+    <t>RFC z_sdb_rfc_roteamento</t>
+  </si>
+  <si>
+    <t>CRBaixa + timestamp / CR + timestamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +234,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -332,6 +345,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,9 +637,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +651,7 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
@@ -685,9 +704,7 @@
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -708,9 +725,7 @@
       <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -731,9 +746,7 @@
       <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -757,9 +770,7 @@
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -780,8 +791,8 @@
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>51</v>
+      <c r="H6" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,20 +806,18 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -832,8 +841,8 @@
       <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>51</v>
+      <c r="H8" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,7 +850,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -855,8 +864,8 @@
       <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>51</v>
+      <c r="H9" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -878,9 +887,7 @@
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -901,9 +908,7 @@
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -924,9 +929,7 @@
       <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -947,9 +950,7 @@
       <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -970,9 +971,7 @@
       <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -988,14 +987,12 @@
         <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1016,9 +1013,7 @@
       <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1034,14 +1029,12 @@
         <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1062,9 +1055,7 @@
       <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1085,9 +1076,7 @@
       <c r="G19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1108,9 +1097,7 @@
       <c r="G20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1131,9 +1118,7 @@
       <c r="G21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1154,37 +1139,14 @@
       <c r="G22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H19" r:id="rId18"/>
-    <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H21" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="F7" r:id="rId22"/>
+    <hyperlink ref="F7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t>Integration Type</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Pro transportadora</t>
   </si>
   <si>
-    <t>Files</t>
-  </si>
-  <si>
     <t>\\IEAZIWAPPD004\CredRural (10.63.252.78) remote desktop</t>
   </si>
   <si>
@@ -207,7 +204,29 @@
     <t>RFC z_sdb_rfc_roteamento</t>
   </si>
   <si>
-    <t>CRBaixa + timestamp / CR + timestamp</t>
+    <t>Outbound - Z_PPB_ATU_PAINEL</t>
+  </si>
+  <si>
+    <t>Inbound - DTS_Atualiza_Repositorio_BRSPSQL03</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Z_SDB_RFC_ROT_CLIENTE, Z_SDB_RFC_ROT_FORNECIMENTO, Z_SDB_RFC_ROT_CLIENTE, Z_SDB_RFC_ROT_FORNECIMENTO, Z_SDB_RFC_ROT_TIPO_VEIC, Z_SDB_RFC_ROT_DEPOSITO, Z_SDB_RFC_ROT_RETORNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa SAP ZSDSB298
+JOB: ZSDSB298 executado diariamente as 00:04 AM
+arquivo é salvo no caminho  Futuro pós Migração para Cloud \\IEAZIWSQLP002\Falt_Files\WebCadastroClients\ (file://ieaziwsqlp002/Falt_Files/WebCadastroClients/)
+Atual \\Brsppvtprd01\Interfaces\Importacao\ (file://brsppvtprd01/Interfaces/Importacao/)
+Nome do arquivo gerado CARGAWEBCASA.TXT </t>
+  </si>
+  <si>
+    <t>CR + timestamp / CRBaixa + timestamp</t>
+  </si>
+  <si>
+    <t>arquivo excel BW</t>
   </si>
 </sst>
 </file>
@@ -320,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -352,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,9 +659,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +673,7 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
@@ -679,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,7 +749,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -746,7 +768,9 @@
       <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -770,7 +794,7 @@
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -791,8 +815,8 @@
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>59</v>
+      <c r="H6" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,18 +830,18 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -833,16 +857,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -865,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -887,7 +911,9 @@
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -908,7 +934,9 @@
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -929,7 +957,9 @@
       <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -950,7 +980,9 @@
       <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -987,12 +1019,14 @@
         <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1029,10 +1063,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -1097,7 +1131,9 @@
       <c r="G20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t>Integration Type</t>
   </si>
@@ -228,12 +228,40 @@
   <si>
     <t>arquivo excel BW</t>
   </si>
+  <si>
+    <t>BR_PRODUCT.txt
+ZV183_FAT.csv
+ZV183_pend.csv
+PortalVendas.xlsx
+BR_EXCHANGE_RATE.txt
+ZTRAExcecao.xlsx
+Dolarizacao.xlsx
+SalesBreakdown.xls
+ZV14ClientesAtivos.txt
+ZV14ClientesBloqueados.TXT
+FGPListCarga.xlsx
+BVAMinimo.xlsx
+PedSynFamilia.xlsx
+RestricaoCadastro.xlsx</t>
+  </si>
+  <si>
+    <t>BRPIWSQL01\SQLSERVER2008 - db_gkoscf_teste</t>
+  </si>
+  <si>
+    <t>BRPIWSQL01\SQLSERVER2008 - db_GKOSCF</t>
+  </si>
+  <si>
+    <t>172.20.128.26</t>
+  </si>
+  <si>
+    <t>W:\SAP_Interfaces\WMAP\Integração com Nutrace</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +292,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +315,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,8 +415,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,9 +735,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,317 +746,334 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="189.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="17">
+        <v>147167169205</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="D12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="D13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -994,6 +1087,9 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1099,7 @@
       <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1015,6 +1111,9 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1024,72 +1123,83 @@
       <c r="G15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="H17" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="10"/>
+      <c r="D18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1101,6 +1211,9 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1223,7 @@
       <c r="G19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1122,6 +1235,9 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1145,6 +1261,9 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1154,28 +1273,31 @@
       <c r="G21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="B22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -735,9 +735,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H24" sqref="H24"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>Integration Type</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>W:\SAP_Interfaces\WMAP\Integração com Nutrace</t>
+  </si>
+  <si>
+    <t>ieaziwappd002</t>
+  </si>
+  <si>
+    <t>IEAZIWSQLD001 (10.63.252.71)</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,18 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +379,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,55 +391,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,9 +704,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,549 +724,549 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <v>147167169205</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="D18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Test Enviroment Plan V3_light_version.xlsx
+++ b/Test Enviroment Plan V3_light_version.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>Integration Type</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>CR + timestamp / CRBaixa + timestamp</t>
-  </si>
-  <si>
-    <t>arquivo excel BW</t>
   </si>
   <si>
     <t>BR_PRODUCT.txt
@@ -262,12 +259,31 @@
   <si>
     <t>IEAZIWSQLD001 (10.63.252.71)</t>
   </si>
+  <si>
+    <t xml:space="preserve">BRSPIIS01
+FRIAPFIL03
+</t>
+  </si>
+  <si>
+    <t>FRIAPSQLGL02</t>
+  </si>
+  <si>
+    <t>base_externa.txt
+base_externa_real.txt
+Consumo – AC.csv , Consumo - DN.csv, Consumo -  DS.csv , Consumo-  KS.csv, Consumo – VI.csv
+Vendas – AC.csv , Vendas - DN.csv, Vendas -  DS.csv , Vendas -  KS.csv, Vendas – VI.csv
+base_externa.txt
+movimentação.txt
+ajustes_TeamSpace-SIP.xlsx, ajustes_TeamSpace-LIFE.xlsx e ajustes_TeamSpace-SPIFF.xlsx
+Ajustes_Auditoria_SIP.CSV, Ajustes_Auditoria_SPIFF.CSV, e Ajustes_Auditoria_LIFE.CSV
+base_externa_REAL-KPI_LIFE.csv, base_externa_REAL-KPI_SIP.csv, e base_externa_REAL-KPI_SPIFF.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +319,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -379,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -418,6 +441,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,9 +733,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +916,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -930,19 +959,19 @@
         <v>147167169205</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -964,8 +993,8 @@
       <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>65</v>
+      <c r="H10" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -990,9 +1019,7 @@
       <c r="G11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1016,9 +1043,7 @@
       <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1081,10 +1106,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>56</v>
@@ -1143,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1236,11 +1261,11 @@
       <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>22</v>
+      <c r="F21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="H21" s="13"/>
     </row>
